--- a/datos_fbref/CARTELERA_PROXIMOS_Premier_League.xlsx
+++ b/datos_fbref/CARTELERA_PROXIMOS_Premier_League.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L159"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,63 +848,63 @@
       <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2026-02-18</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>20:00 (17:00)</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Wolves</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Arsenal</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Molineux Stadium</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15:00 (12:00)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Villa Park</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -930,19 +930,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Villa Park</t>
+          <t>Stamford Bridge</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -976,19 +976,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Stamford Bridge</t>
+          <t>Gtech Community Stadium</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1017,24 +1017,24 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>15:00 (12:00)</t>
+          <t>17:30 (14:30)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Gtech Community Stadium</t>
+          <t>London Stadium</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1063,24 +1063,24 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17:30 (14:30)</t>
+          <t>20:00 (17:00)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>London Stadium</t>
+          <t>Etihad Stadium</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1099,34 +1099,34 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>20:00 (17:00)</t>
+          <t>14:00 (11:00)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Etihad Stadium</t>
+          <t>Selhurst Park</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1160,19 +1160,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Selhurst Park</t>
+          <t>Stadium of Light</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -1206,19 +1206,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Stadium of Light</t>
+          <t>The City Ground</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -1247,24 +1247,24 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14:00 (11:00)</t>
+          <t>16:30 (13:30)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>The City Ground</t>
+          <t>Tottenham Hotspur Stadium</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -1283,34 +1283,34 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>16:30 (13:30)</t>
+          <t>20:00 (17:00)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Manchester Utd</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur Stadium</t>
+          <t>Hill Dickinson Stadium</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -1322,63 +1322,63 @@
       <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>20:00 (17:00)</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Everton</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Manchester Utd</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Hill Dickinson Stadium</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Molineux Stadium</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1389,34 +1389,34 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>20:00 (17:00)</t>
+          <t>12:30 (09:30)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Molineux Stadium</t>
+          <t>Vitality Stadium</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -1445,24 +1445,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12:30 (09:30)</t>
+          <t>15:00 (12:00)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Vitality Stadium</t>
+          <t>St James' Park</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -1496,19 +1496,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>St James' Park</t>
+          <t>Turf Moor</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -1542,19 +1542,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Turf Moor</t>
+          <t>Anfield</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -1583,24 +1583,24 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15:00 (12:00)</t>
+          <t>17:30 (14:30)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Anfield</t>
+          <t>Elland Road</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -1619,34 +1619,34 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>17:30 (14:30)</t>
+          <t>14:00 (11:00)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>Manchester Utd</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Elland Road</t>
+          <t>Old Trafford</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -1680,19 +1680,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Manchester Utd</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Old Trafford</t>
+          <t>Craven Cottage</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -1726,19 +1726,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Craven Cottage</t>
+          <t>The American Express Stadium</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -1767,24 +1767,24 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>14:00 (11:00)</t>
+          <t>16:30 (13:30)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>The American Express Stadium</t>
+          <t>Emirates Stadium</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -1796,63 +1796,63 @@
       <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2026-03-01</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>16:30 (13:30)</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Arsenal</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Chelsea</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Emirates Stadium</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2026-03-03</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>19:30 (16:30)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Hill Dickinson Stadium</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Hill Dickinson Stadium</t>
+          <t>Vitality Stadium</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -1924,19 +1924,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Vitality Stadium</t>
+          <t>Elland Road</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -1965,24 +1965,24 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>19:30 (16:30)</t>
+          <t>20:15 (17:15)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Elland Road</t>
+          <t>Molineux Stadium</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2001,34 +2001,34 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>20:15 (17:15)</t>
+          <t>19:30 (16:30)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Molineux Stadium</t>
+          <t>Etihad Stadium</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2062,19 +2062,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Etihad Stadium</t>
+          <t>The American Express Stadium</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2108,19 +2108,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>The American Express Stadium</t>
+          <t>Craven Cottage</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -2154,19 +2154,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Craven Cottage</t>
+          <t>Villa Park</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -2195,24 +2195,24 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>19:30 (16:30)</t>
+          <t>20:15 (17:15)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Manchester Utd</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Villa Park</t>
+          <t>St James' Park</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -2231,34 +2231,34 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>20:15 (17:15)</t>
+          <t>20:00 (17:00)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Manchester Utd</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>St James' Park</t>
+          <t>Tottenham Hotspur Stadium</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -2270,63 +2270,63 @@
       <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2026-03-05</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>20:00 (17:00)</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Tottenham Hotspur</t>
-        </is>
-      </c>
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Crystal Palace</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Tottenham Hotspur Stadium</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2026-03-14</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>12:30 (09:30)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>London Stadium</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -2347,24 +2347,24 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>12:30 (09:30)</t>
+          <t>15:00 (12:00)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>London Stadium</t>
+          <t>Selhurst Park</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -2398,19 +2398,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Selhurst Park</t>
+          <t>Stadium of Light</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -2444,19 +2444,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Stadium of Light</t>
+          <t>Turf Moor</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -2485,24 +2485,24 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>15:00 (12:00)</t>
+          <t>17:30 (14:30)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Turf Moor</t>
+          <t>Stamford Bridge</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -2521,34 +2521,34 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>17:30 (14:30)</t>
+          <t>14:00 (11:00)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Stamford Bridge</t>
+          <t>Emirates Stadium</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -2582,19 +2582,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Emirates Stadium</t>
+          <t>The City Ground</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -2628,19 +2628,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Manchester Utd</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>The City Ground</t>
+          <t>Old Trafford</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -2669,24 +2669,24 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>14:00 (11:00)</t>
+          <t>16:30 (13:30)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Manchester Utd</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Old Trafford</t>
+          <t>Anfield</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -2705,34 +2705,34 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>16:30 (13:30)</t>
+          <t>20:00 (17:00)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Anfield</t>
+          <t>Gtech Community Stadium</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -2744,63 +2744,63 @@
       <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>20:00 (17:00)</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Brentford</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Wolves</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Gtech Community Stadium</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Vitality Stadium</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -2811,34 +2811,34 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>20:00 (17:00)</t>
+          <t>12:30 (09:30)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Manchester Utd</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Vitality Stadium</t>
+          <t>The American Express Stadium</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -2867,24 +2867,24 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>12:30 (09:30)</t>
+          <t>15:00 (12:00)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>The American Express Stadium</t>
+          <t>Craven Cottage</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -2918,28 +2918,28 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Craven Cottage</t>
+          <t>Etihad Stadium</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Match Postponed</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2959,33 +2959,33 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>15:00 (12:00)</t>
+          <t>17:30 (14:30)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Etihad Stadium</t>
+          <t>Hill Dickinson Stadium</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Match Postponed</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3005,24 +3005,24 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>17:30 (14:30)</t>
+          <t>20:00 (17:00)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Hill Dickinson Stadium</t>
+          <t>Elland Road</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3041,34 +3041,34 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>20:00 (17:00)</t>
+          <t>12:00 (09:00)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Elland Road</t>
+          <t>St James' Park</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -3097,24 +3097,24 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>12:00 (09:00)</t>
+          <t>14:15 (11:15)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>St James' Park</t>
+          <t>Villa Park</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -3148,19 +3148,19 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Villa Park</t>
+          <t>Tottenham Hotspur Stadium</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -3172,63 +3172,63 @@
       <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>2026-03-22</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>14:15 (11:15)</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Tottenham Hotspur</t>
-        </is>
-      </c>
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Nottingham Forest</t>
-        </is>
-      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Tottenham Hotspur Stadium</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2026-04-11</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>15:00 (11:00)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Stamford Bridge</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -3254,19 +3254,19 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Manchester Utd</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Stamford Bridge</t>
+          <t>Old Trafford</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -3300,19 +3300,19 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Manchester Utd</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Old Trafford</t>
+          <t>Gtech Community Stadium</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -3346,19 +3346,19 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Gtech Community Stadium</t>
+          <t>Anfield</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -3392,19 +3392,19 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Anfield</t>
+          <t>Selhurst Park</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -3438,19 +3438,19 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Selhurst Park</t>
+          <t>Turf Moor</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -3484,19 +3484,19 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Turf Moor</t>
+          <t>Emirates Stadium</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -3530,19 +3530,19 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Emirates Stadium</t>
+          <t>London Stadium</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -3576,19 +3576,19 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>London Stadium</t>
+          <t>The City Ground</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -3622,19 +3622,19 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>The City Ground</t>
+          <t>Stadium of Light</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -3646,63 +3646,63 @@
       <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Sat</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>2026-04-11</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2026-04-18</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>15:00 (11:00)</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Sunderland</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Tottenham Hotspur</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Stadium of Light</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Selhurst Park</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3728,19 +3728,19 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Selhurst Park</t>
+          <t>Hill Dickinson Stadium</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -3774,19 +3774,19 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Hill Dickinson Stadium</t>
+          <t>Elland Road</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -3820,19 +3820,19 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Elland Road</t>
+          <t>Gtech Community Stadium</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -3866,19 +3866,19 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Gtech Community Stadium</t>
+          <t>St James' Park</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -3912,19 +3912,19 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Manchester Utd</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>St James' Park</t>
+          <t>Stamford Bridge</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -3958,19 +3958,19 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Manchester Utd</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Stamford Bridge</t>
+          <t>Tottenham Hotspur Stadium</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4004,19 +4004,19 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur Stadium</t>
+          <t>The City Ground</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -4050,19 +4050,19 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>The City Ground</t>
+          <t>Etihad Stadium</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -4096,19 +4096,19 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Etihad Stadium</t>
+          <t>Villa Park</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -4120,63 +4120,63 @@
       <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Sat</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>2026-04-18</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2026-04-25</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>15:00 (11:00)</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Aston Villa</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Sunderland</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>Villa Park</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr"/>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Emirates Stadium</t>
+        </is>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Emirates Stadium</t>
+          <t>Craven Cottage</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -4248,19 +4248,19 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Craven Cottage</t>
+          <t>Anfield</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -4294,19 +4294,19 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Anfield</t>
+          <t>London Stadium</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -4340,19 +4340,19 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>London Stadium</t>
+          <t>The American Express Stadium</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -4386,19 +4386,19 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>The American Express Stadium</t>
+          <t>Molineux Stadium</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -4432,19 +4432,19 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Molineux Stadium</t>
+          <t>Stadium of Light</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -4478,19 +4478,19 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Manchester Utd</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Stadium of Light</t>
+          <t>Old Trafford</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -4524,19 +4524,19 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Manchester Utd</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Old Trafford</t>
+          <t>Turf Moor</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -4570,19 +4570,19 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Turf Moor</t>
+          <t>Vitality Stadium</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -4594,63 +4594,63 @@
       <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Sat</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>2026-04-25</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2026-05-02</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>15:00 (11:00)</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Bournemouth</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Leeds United</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>Vitality Stadium</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr"/>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Gtech Community Stadium</t>
+        </is>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -4676,19 +4676,19 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Gtech Community Stadium</t>
+          <t>Vitality Stadium</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -4722,19 +4722,19 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Manchester Utd</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Vitality Stadium</t>
+          <t>Old Trafford</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -4768,19 +4768,19 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Manchester Utd</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Old Trafford</t>
+          <t>Elland Road</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -4814,19 +4814,19 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Elland Road</t>
+          <t>Stamford Bridge</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -4860,19 +4860,19 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Stamford Bridge</t>
+          <t>Molineux Stadium</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -4906,19 +4906,19 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Molineux Stadium</t>
+          <t>Hill Dickinson Stadium</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -4952,19 +4952,19 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Hill Dickinson Stadium</t>
+          <t>Emirates Stadium</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -4998,19 +4998,19 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Emirates Stadium</t>
+          <t>Villa Park</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -5044,19 +5044,19 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Villa Park</t>
+          <t>St James' Park</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -5068,63 +5068,63 @@
       <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Sat</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>2026-05-02</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2026-05-09</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
         <is>
           <t>15:00 (11:00)</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Newcastle United</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Brighton</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>St James' Park</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr"/>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Etihad Stadium</t>
+        </is>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
@@ -5150,19 +5150,19 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Etihad Stadium</t>
+          <t>The City Ground</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -5196,19 +5196,19 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>The City Ground</t>
+          <t>Selhurst Park</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -5242,19 +5242,19 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Selhurst Park</t>
+          <t>The American Express Stadium</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -5288,19 +5288,19 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>The American Express Stadium</t>
+          <t>Craven Cottage</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -5334,19 +5334,19 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Craven Cottage</t>
+          <t>Tottenham Hotspur Stadium</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -5380,19 +5380,19 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>Manchester Utd</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur Stadium</t>
+          <t>Stadium of Light</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -5426,19 +5426,19 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Manchester Utd</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Stadium of Light</t>
+          <t>Turf Moor</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -5472,19 +5472,19 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Turf Moor</t>
+          <t>London Stadium</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -5518,19 +5518,19 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>London Stadium</t>
+          <t>Anfield</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -5542,63 +5542,63 @@
       <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Sat</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>2026-05-09</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2026-05-17</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
         <is>
           <t>15:00 (11:00)</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Liverpool</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Chelsea</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>Anfield</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr"/>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
       <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
       <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Old Trafford</t>
+        </is>
+      </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -5624,19 +5624,19 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Manchester Utd</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Old Trafford</t>
+          <t>Stamford Bridge</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -5670,19 +5670,19 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Stamford Bridge</t>
+          <t>Emirates Stadium</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -5716,19 +5716,19 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Emirates Stadium</t>
+          <t>St James' Park</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -5762,19 +5762,19 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>St James' Park</t>
+          <t>Hill Dickinson Stadium</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -5808,19 +5808,19 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Hill Dickinson Stadium</t>
+          <t>Molineux Stadium</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -5854,19 +5854,19 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Molineux Stadium</t>
+          <t>Vitality Stadium</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -5900,19 +5900,19 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Vitality Stadium</t>
+          <t>Villa Park</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -5946,19 +5946,19 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Villa Park</t>
+          <t>Gtech Community Stadium</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -5992,19 +5992,19 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Gtech Community Stadium</t>
+          <t>Elland Road</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -6016,63 +6016,63 @@
       <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
         <is>
           <t>Sun</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>2026-05-17</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>15:00 (11:00)</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2026-05-24</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>16:00 (12:00)</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
         <is>
           <t>Leeds United</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>Brighton</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>Elland Road</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr"/>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>London Stadium</t>
+        </is>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
@@ -6098,19 +6098,19 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>London Stadium</t>
+          <t>Turf Moor</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -6144,19 +6144,19 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Turf Moor</t>
+          <t>Stadium of Light</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -6190,19 +6190,19 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Stadium of Light</t>
+          <t>The City Ground</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -6236,19 +6236,19 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>The City Ground</t>
+          <t>Selhurst Park</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -6282,19 +6282,19 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Selhurst Park</t>
+          <t>Craven Cottage</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -6328,19 +6328,19 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Manchester Utd</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Craven Cottage</t>
+          <t>The American Express Stadium</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -6374,19 +6374,19 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Manchester Utd</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>The American Express Stadium</t>
+          <t>Anfield</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -6420,19 +6420,19 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Anfield</t>
+          <t>Tottenham Hotspur Stadium</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -6466,19 +6466,19 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur Stadium</t>
+          <t>Etihad Stadium</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -6488,52 +6488,6 @@
         </is>
       </c>
       <c r="L158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>2026-05-24</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>16:00 (12:00)</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Manchester City</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>Aston Villa</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>Etihad Stadium</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
